--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H2">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I2">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J2">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N2">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O2">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P2">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q2">
-        <v>1.687583200180273</v>
+        <v>1.767907494495</v>
       </c>
       <c r="R2">
-        <v>1.687583200180273</v>
+        <v>7.07162997798</v>
       </c>
       <c r="S2">
-        <v>0.04787208394484094</v>
+        <v>0.03990096861387456</v>
       </c>
       <c r="T2">
-        <v>0.04787208394484094</v>
+        <v>0.02595164894725284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H3">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I3">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J3">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N3">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O3">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P3">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q3">
-        <v>1.80000523160475</v>
+        <v>2.089081702532</v>
       </c>
       <c r="R3">
-        <v>1.80000523160475</v>
+        <v>12.534490215192</v>
       </c>
       <c r="S3">
-        <v>0.05106118711025953</v>
+        <v>0.04714974267834053</v>
       </c>
       <c r="T3">
-        <v>0.05106118711025953</v>
+        <v>0.04599939346520465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H4">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I4">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J4">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N4">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O4">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P4">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q4">
-        <v>0.8305876267033837</v>
+        <v>0.8823074097700001</v>
       </c>
       <c r="R4">
-        <v>0.8305876267033837</v>
+        <v>5.293844458620001</v>
       </c>
       <c r="S4">
-        <v>0.023561481641227</v>
+        <v>0.01991332712522833</v>
       </c>
       <c r="T4">
-        <v>0.023561481641227</v>
+        <v>0.01942748608160485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H5">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I5">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J5">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N5">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O5">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P5">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q5">
-        <v>1.216177632804264</v>
+        <v>1.252117290228</v>
       </c>
       <c r="R5">
-        <v>1.216177632804264</v>
+        <v>7.512703741368001</v>
       </c>
       <c r="S5">
-        <v>0.03449960732201195</v>
+        <v>0.02825978896172297</v>
       </c>
       <c r="T5">
-        <v>0.03449960732201195</v>
+        <v>0.02757031274936523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H6">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I6">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J6">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N6">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O6">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P6">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q6">
-        <v>0.981446062616688</v>
+        <v>1.070939582036</v>
       </c>
       <c r="R6">
-        <v>0.981446062616688</v>
+        <v>6.425637492216</v>
       </c>
       <c r="S6">
-        <v>0.02784091966067258</v>
+        <v>0.02417068018730278</v>
       </c>
       <c r="T6">
-        <v>0.02784091966067258</v>
+        <v>0.02358096916546096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H7">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I7">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J7">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.25809564156138</v>
+        <v>4.927428</v>
       </c>
       <c r="N7">
-        <v>4.25809564156138</v>
+        <v>9.854856</v>
       </c>
       <c r="O7">
-        <v>0.2001727561958759</v>
+        <v>0.2123898992999982</v>
       </c>
       <c r="P7">
-        <v>0.2001727561958759</v>
+        <v>0.1639792206754944</v>
       </c>
       <c r="Q7">
-        <v>1.630709138334706</v>
+        <v>1.904460776856</v>
       </c>
       <c r="R7">
-        <v>1.630709138334706</v>
+        <v>7.617843107424</v>
       </c>
       <c r="S7">
-        <v>0.04625872357086697</v>
+        <v>0.04298292185553115</v>
       </c>
       <c r="T7">
-        <v>0.04625872357086697</v>
+        <v>0.02795615588976119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J8">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N8">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O8">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P8">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q8">
-        <v>2.302772807012744</v>
+        <v>3.1704234107375</v>
       </c>
       <c r="R8">
-        <v>2.302772807012744</v>
+        <v>19.022540464425</v>
       </c>
       <c r="S8">
-        <v>0.06532331745862076</v>
+        <v>0.07155519471377406</v>
       </c>
       <c r="T8">
-        <v>0.06532331745862076</v>
+        <v>0.0698094065660778</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J9">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N9">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O9">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P9">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q9">
-        <v>2.456177034339589</v>
+        <v>3.746391458418889</v>
       </c>
       <c r="R9">
-        <v>2.456177034339589</v>
+        <v>33.71752312576999</v>
       </c>
       <c r="S9">
-        <v>0.06967497256356593</v>
+        <v>0.08455456434408064</v>
       </c>
       <c r="T9">
-        <v>0.06967497256356593</v>
+        <v>0.1237374305860969</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H10">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I10">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J10">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N10">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O10">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P10">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q10">
-        <v>1.133369069098038</v>
+        <v>1.582259295869445</v>
       </c>
       <c r="R10">
-        <v>1.133369069098038</v>
+        <v>14.240333662825</v>
       </c>
       <c r="S10">
-        <v>0.03215055661288384</v>
+        <v>0.03571096264939588</v>
       </c>
       <c r="T10">
-        <v>0.03215055661288384</v>
+        <v>0.05225954147207033</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H11">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I11">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J11">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N11">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O11">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P11">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q11">
-        <v>1.659521605227892</v>
+        <v>2.245446655036667</v>
       </c>
       <c r="R11">
-        <v>1.659521605227892</v>
+        <v>20.20901989533</v>
       </c>
       <c r="S11">
-        <v>0.04707605384152933</v>
+        <v>0.05067883743110694</v>
       </c>
       <c r="T11">
-        <v>0.04707605384152933</v>
+        <v>0.07416357919245416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H12">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I12">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J12">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N12">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O12">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P12">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q12">
-        <v>1.33922126286989</v>
+        <v>1.920537094245556</v>
       </c>
       <c r="R12">
-        <v>1.33922126286989</v>
+        <v>17.28483384821</v>
       </c>
       <c r="S12">
-        <v>0.03799001596482753</v>
+        <v>0.04334575794146028</v>
       </c>
       <c r="T12">
-        <v>0.03799001596482753</v>
+        <v>0.06343232628646001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H13">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I13">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J13">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.25809564156138</v>
+        <v>4.927428</v>
       </c>
       <c r="N13">
-        <v>4.25809564156138</v>
+        <v>9.854856</v>
       </c>
       <c r="O13">
-        <v>0.2001727561958759</v>
+        <v>0.2123898992999982</v>
       </c>
       <c r="P13">
-        <v>0.2001727561958759</v>
+        <v>0.1639792206754944</v>
       </c>
       <c r="Q13">
-        <v>2.22516594115372</v>
+        <v>3.41530710774</v>
       </c>
       <c r="R13">
-        <v>2.22516594115372</v>
+        <v>20.49184264644</v>
       </c>
       <c r="S13">
-        <v>0.0631218245801053</v>
+        <v>0.07708212230391781</v>
       </c>
       <c r="T13">
-        <v>0.0631218245801053</v>
+        <v>0.07520148937355212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H14">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I14">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J14">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N14">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O14">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P14">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q14">
-        <v>3.312227255235956</v>
+        <v>0.09781151083249999</v>
       </c>
       <c r="R14">
-        <v>3.312227255235956</v>
+        <v>0.5868690649949999</v>
       </c>
       <c r="S14">
-        <v>0.09395875782012265</v>
+        <v>0.002207566875504454</v>
       </c>
       <c r="T14">
-        <v>0.09395875782012265</v>
+        <v>0.002153707136852095</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H15">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I15">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J15">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N15">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O15">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P15">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q15">
-        <v>3.532878489814121</v>
+        <v>0.1155808424442222</v>
       </c>
       <c r="R15">
-        <v>3.532878489814121</v>
+        <v>1.040227581998</v>
       </c>
       <c r="S15">
-        <v>0.1002180251695075</v>
+        <v>0.002608613618694705</v>
       </c>
       <c r="T15">
-        <v>0.1002180251695075</v>
+        <v>0.003817453842653263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H16">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I16">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J16">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N16">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O16">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P16">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q16">
-        <v>1.63019812874104</v>
+        <v>0.04881466990611111</v>
       </c>
       <c r="R16">
-        <v>1.63019812874104</v>
+        <v>0.439332029155</v>
       </c>
       <c r="S16">
-        <v>0.04624422763717789</v>
+        <v>0.001101727674035773</v>
       </c>
       <c r="T16">
-        <v>0.04624422763717789</v>
+        <v>0.001612271941181459</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H17">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I17">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J17">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N17">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O17">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P17">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q17">
-        <v>2.386997394944629</v>
+        <v>0.06927482590466666</v>
       </c>
       <c r="R17">
-        <v>2.386997394944629</v>
+        <v>0.623473433142</v>
       </c>
       <c r="S17">
-        <v>0.06771253687207791</v>
+        <v>0.001563505252826195</v>
       </c>
       <c r="T17">
-        <v>0.06771253687207791</v>
+        <v>0.002288038785290281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H18">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I18">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J18">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N18">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O18">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P18">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q18">
-        <v>1.926288669972391</v>
+        <v>0.05925096129488888</v>
       </c>
       <c r="R18">
-        <v>1.926288669972391</v>
+        <v>0.533258651654</v>
       </c>
       <c r="S18">
-        <v>0.05464350018479894</v>
+        <v>0.001337270617569603</v>
       </c>
       <c r="T18">
-        <v>0.05464350018479894</v>
+        <v>0.001956966267876344</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.064151</v>
+      </c>
+      <c r="I19">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J19">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.927428</v>
+      </c>
+      <c r="N19">
+        <v>9.854856</v>
+      </c>
+      <c r="O19">
+        <v>0.2123898992999982</v>
+      </c>
+      <c r="P19">
+        <v>0.1639792206754944</v>
+      </c>
+      <c r="Q19">
+        <v>0.105366477876</v>
+      </c>
+      <c r="R19">
+        <v>0.6321988672559999</v>
+      </c>
+      <c r="S19">
+        <v>0.002378079475185276</v>
+      </c>
+      <c r="T19">
+        <v>0.002320059607044815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8088005</v>
+      </c>
+      <c r="H20">
+        <v>1.617601</v>
+      </c>
+      <c r="I20">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J20">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.5741225</v>
+      </c>
+      <c r="N20">
+        <v>9.148244999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.1971611593636388</v>
+      </c>
+      <c r="P20">
+        <v>0.1522216139584879</v>
+      </c>
+      <c r="Q20">
+        <v>3.69955256506125</v>
+      </c>
+      <c r="R20">
+        <v>14.798210260245</v>
+      </c>
+      <c r="S20">
+        <v>0.08349742916048573</v>
+      </c>
+      <c r="T20">
+        <v>0.05430685130830518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8088005</v>
+      </c>
+      <c r="H21">
+        <v>1.617601</v>
+      </c>
+      <c r="I21">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J21">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.405099333333332</v>
+      </c>
+      <c r="N21">
+        <v>16.215298</v>
+      </c>
+      <c r="O21">
+        <v>0.2329792547172996</v>
+      </c>
+      <c r="P21">
+        <v>0.2698133721143062</v>
+      </c>
+      <c r="Q21">
+        <v>4.371647043349666</v>
+      </c>
+      <c r="R21">
+        <v>26.22988226009799</v>
+      </c>
+      <c r="S21">
+        <v>0.09866633407618373</v>
+      </c>
+      <c r="T21">
+        <v>0.09625909422035138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8088005</v>
+      </c>
+      <c r="H22">
+        <v>1.617601</v>
+      </c>
+      <c r="I22">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J22">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.282801666666667</v>
+      </c>
+      <c r="N22">
+        <v>6.848405000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.09839697629375843</v>
+      </c>
+      <c r="P22">
+        <v>0.1139535793085317</v>
+      </c>
+      <c r="Q22">
+        <v>1.846331129400834</v>
+      </c>
+      <c r="R22">
+        <v>11.077986776405</v>
+      </c>
+      <c r="S22">
+        <v>0.04167095884509844</v>
+      </c>
+      <c r="T22">
+        <v>0.04065427981367506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8088005</v>
+      </c>
+      <c r="H23">
+        <v>1.617601</v>
+      </c>
+      <c r="I23">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J23">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.239614</v>
+      </c>
+      <c r="N23">
+        <v>9.718842</v>
+      </c>
+      <c r="O23">
+        <v>0.1396390350565984</v>
+      </c>
+      <c r="P23">
+        <v>0.1617160247727885</v>
+      </c>
+      <c r="Q23">
+        <v>2.620201423007</v>
+      </c>
+      <c r="R23">
+        <v>15.721208538042</v>
+      </c>
+      <c r="S23">
+        <v>0.05913690341094229</v>
+      </c>
+      <c r="T23">
+        <v>0.05769409404567886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="H19">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="I19">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="J19">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.25809564156138</v>
-      </c>
-      <c r="N19">
-        <v>4.25809564156138</v>
-      </c>
-      <c r="O19">
-        <v>0.2001727561958759</v>
-      </c>
-      <c r="P19">
-        <v>0.2001727561958759</v>
-      </c>
-      <c r="Q19">
-        <v>3.200600274272447</v>
-      </c>
-      <c r="R19">
-        <v>3.200600274272447</v>
-      </c>
-      <c r="S19">
-        <v>0.09079220804490361</v>
-      </c>
-      <c r="T19">
-        <v>0.09079220804490361</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8088005</v>
+      </c>
+      <c r="H24">
+        <v>1.617601</v>
+      </c>
+      <c r="I24">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J24">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.770851333333333</v>
+      </c>
+      <c r="N24">
+        <v>8.312554</v>
+      </c>
+      <c r="O24">
+        <v>0.1194336752687066</v>
+      </c>
+      <c r="P24">
+        <v>0.1383161891703911</v>
+      </c>
+      <c r="Q24">
+        <v>2.241065943825667</v>
+      </c>
+      <c r="R24">
+        <v>13.446395662954</v>
+      </c>
+      <c r="S24">
+        <v>0.05057996652237397</v>
+      </c>
+      <c r="T24">
+        <v>0.0493459274505938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8088005</v>
+      </c>
+      <c r="H25">
+        <v>1.617601</v>
+      </c>
+      <c r="I25">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J25">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.927428</v>
+      </c>
+      <c r="N25">
+        <v>9.854856</v>
+      </c>
+      <c r="O25">
+        <v>0.2123898992999982</v>
+      </c>
+      <c r="P25">
+        <v>0.1639792206754944</v>
+      </c>
+      <c r="Q25">
+        <v>3.985306230114</v>
+      </c>
+      <c r="R25">
+        <v>15.941224920456</v>
+      </c>
+      <c r="S25">
+        <v>0.08994677566536401</v>
+      </c>
+      <c r="T25">
+        <v>0.05850151580513631</v>
       </c>
     </row>
   </sheetData>
